--- a/data/pca/factorExposure/factorExposure_2015-05-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +720,97 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02032868242913195</v>
+        <v>0.0112076181736686</v>
       </c>
       <c r="C2">
-        <v>-0.01908826981355016</v>
+        <v>0.05332575445068742</v>
       </c>
       <c r="D2">
-        <v>0.1073418521951591</v>
+        <v>-0.1293254044302282</v>
       </c>
       <c r="E2">
-        <v>0.01337279327722417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02456834842626228</v>
+      </c>
+      <c r="F2">
+        <v>-0.03067178207879584</v>
+      </c>
+      <c r="G2">
+        <v>0.1144945310649677</v>
+      </c>
+      <c r="H2">
+        <v>0.07732008022309747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.0001526542125695323</v>
+        <v>8.901205819451763e-05</v>
       </c>
       <c r="C3">
-        <v>4.105420520186425e-05</v>
+        <v>-9.557766946277387e-05</v>
       </c>
       <c r="D3">
-        <v>0.000789419649902119</v>
+        <v>-0.001678878875738949</v>
       </c>
       <c r="E3">
-        <v>-0.0007691546089511612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.002672612166199678</v>
+      </c>
+      <c r="F3">
+        <v>0.002899237026267031</v>
+      </c>
+      <c r="G3">
+        <v>0.0008362398220875127</v>
+      </c>
+      <c r="H3">
+        <v>-0.01032010814751433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.0449834092404498</v>
+        <v>0.01961889113707199</v>
       </c>
       <c r="C4">
-        <v>-0.07197721695678277</v>
+        <v>0.1062573971687295</v>
       </c>
       <c r="D4">
-        <v>0.1261875010425922</v>
+        <v>-0.1311777728374535</v>
       </c>
       <c r="E4">
-        <v>0.0865471020568294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.0100550835620342</v>
+      </c>
+      <c r="F4">
+        <v>-0.09088079041789504</v>
+      </c>
+      <c r="G4">
+        <v>0.008838911208361899</v>
+      </c>
+      <c r="H4">
+        <v>0.04499598937616763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02104964796029743</v>
+        <v>0.02694924317410553</v>
       </c>
       <c r="C6">
-        <v>-0.01266391017605597</v>
+        <v>0.03497466751941484</v>
       </c>
       <c r="D6">
-        <v>0.1369430865283807</v>
+        <v>-0.1207457657078496</v>
       </c>
       <c r="E6">
-        <v>0.03979575060487843</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.05984653465571407</v>
+      </c>
+      <c r="F6">
+        <v>-0.04678014454130203</v>
+      </c>
+      <c r="G6">
+        <v>3.646281378616849e-05</v>
+      </c>
+      <c r="H6">
+        <v>0.04420553208378526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.00228152314361143</v>
+        <v>0.008724752358906114</v>
       </c>
       <c r="C7">
-        <v>-0.0240415867510085</v>
+        <v>0.03803451392724799</v>
       </c>
       <c r="D7">
-        <v>0.1102731642436948</v>
+        <v>-0.09789367794831165</v>
       </c>
       <c r="E7">
-        <v>0.005947066503722449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05398758385537719</v>
+      </c>
+      <c r="F7">
+        <v>-0.01170126487250251</v>
+      </c>
+      <c r="G7">
+        <v>-0.008027938088290382</v>
+      </c>
+      <c r="H7">
+        <v>0.08020239433519573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.004860294834101318</v>
+        <v>-0.008095938098843432</v>
       </c>
       <c r="C8">
-        <v>-0.02621064695511914</v>
+        <v>0.03510887169338953</v>
       </c>
       <c r="D8">
-        <v>0.07853401932378133</v>
+        <v>-0.07467612909297654</v>
       </c>
       <c r="E8">
-        <v>0.02340153133687235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.03954553679290502</v>
+      </c>
+      <c r="F8">
+        <v>-0.04812338342331896</v>
+      </c>
+      <c r="G8">
+        <v>0.06131418968481502</v>
+      </c>
+      <c r="H8">
+        <v>0.008888344199261341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03615082805107175</v>
+        <v>0.01345403740695722</v>
       </c>
       <c r="C9">
-        <v>-0.06144048493856447</v>
+        <v>0.08838769209326165</v>
       </c>
       <c r="D9">
-        <v>0.1293609218066007</v>
+        <v>-0.1148800838223446</v>
       </c>
       <c r="E9">
-        <v>0.07069158731430285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.0123148683172406</v>
+      </c>
+      <c r="F9">
+        <v>-0.06082699709333435</v>
+      </c>
+      <c r="G9">
+        <v>-0.01272281619989114</v>
+      </c>
+      <c r="H9">
+        <v>0.05700068507514509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1712895996114764</v>
+        <v>0.2406586710597085</v>
       </c>
       <c r="C10">
-        <v>0.1705720123601939</v>
+        <v>-0.09437026877920965</v>
       </c>
       <c r="D10">
-        <v>0.003354795347426197</v>
+        <v>0.002142567638582319</v>
       </c>
       <c r="E10">
-        <v>0.0431734484521032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01038865395127573</v>
+      </c>
+      <c r="F10">
+        <v>-0.04430918673207829</v>
+      </c>
+      <c r="G10">
+        <v>-0.0004361461653353232</v>
+      </c>
+      <c r="H10">
+        <v>-0.04156327295129366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.01836807915911701</v>
+        <v>0.01021468103417313</v>
       </c>
       <c r="C11">
-        <v>-0.04118072716979586</v>
+        <v>0.05537527085183271</v>
       </c>
       <c r="D11">
-        <v>0.04601488545167833</v>
+        <v>-0.04375120998146113</v>
       </c>
       <c r="E11">
-        <v>-0.01446861188649107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01974710596847282</v>
+      </c>
+      <c r="F11">
+        <v>0.01140439277125526</v>
+      </c>
+      <c r="G11">
+        <v>-0.005061910601963635</v>
+      </c>
+      <c r="H11">
+        <v>0.04401448519742517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.01895298885092032</v>
+        <v>0.01040250193482869</v>
       </c>
       <c r="C12">
-        <v>-0.04060799276493902</v>
+        <v>0.04944186579494595</v>
       </c>
       <c r="D12">
-        <v>0.06003266183127669</v>
+        <v>-0.04719264147137863</v>
       </c>
       <c r="E12">
-        <v>-0.003448329534589265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01500304151465842</v>
+      </c>
+      <c r="F12">
+        <v>0.01455581576867814</v>
+      </c>
+      <c r="G12">
+        <v>-0.02416626861223032</v>
+      </c>
+      <c r="H12">
+        <v>0.06448619901584064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.00114885308437865</v>
+        <v>-0.002981543892065447</v>
       </c>
       <c r="C13">
-        <v>-0.02218023674360531</v>
+        <v>0.0473461663366252</v>
       </c>
       <c r="D13">
-        <v>0.1443313753547588</v>
+        <v>-0.1531919321895938</v>
       </c>
       <c r="E13">
-        <v>0.04052010030164662</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04089381503394383</v>
+      </c>
+      <c r="F13">
+        <v>-0.03667471530378868</v>
+      </c>
+      <c r="G13">
+        <v>0.0138032803164883</v>
+      </c>
+      <c r="H13">
+        <v>0.07514304030721944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.005959742794453199</v>
+        <v>0.001511265976953606</v>
       </c>
       <c r="C14">
-        <v>-0.01661131000046672</v>
+        <v>0.03079652008767635</v>
       </c>
       <c r="D14">
-        <v>0.09508818063054954</v>
+        <v>-0.1029426699397592</v>
       </c>
       <c r="E14">
-        <v>0.01375022918913948</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.04993144487053654</v>
+      </c>
+      <c r="F14">
+        <v>-0.03864775660371043</v>
+      </c>
+      <c r="G14">
+        <v>0.01567556162501224</v>
+      </c>
+      <c r="H14">
+        <v>0.1286602136848512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002988828295897541</v>
+        <v>-0.00145001605753159</v>
       </c>
       <c r="C15">
-        <v>-0.01075672671178857</v>
+        <v>0.02578936384995069</v>
       </c>
       <c r="D15">
-        <v>0.03155663135589391</v>
+        <v>-0.06012748534692066</v>
       </c>
       <c r="E15">
-        <v>-0.003184593630347684</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.01121394402225464</v>
+      </c>
+      <c r="F15">
+        <v>-0.007582623432087865</v>
+      </c>
+      <c r="G15">
+        <v>0.01847655331347278</v>
+      </c>
+      <c r="H15">
+        <v>0.03364613664756626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.01834312643017242</v>
+        <v>0.0103213961976968</v>
       </c>
       <c r="C16">
-        <v>-0.0365183847762111</v>
+        <v>0.04908101047330149</v>
       </c>
       <c r="D16">
-        <v>0.0521226634776375</v>
+        <v>-0.04372579220045684</v>
       </c>
       <c r="E16">
-        <v>-0.005609630538213986</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02172457259598949</v>
+      </c>
+      <c r="F16">
+        <v>0.007211943814842258</v>
+      </c>
+      <c r="G16">
+        <v>-0.01670151981150568</v>
+      </c>
+      <c r="H16">
+        <v>0.04510514958945087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.003236368958463709</v>
+        <v>-0.0001038796956398166</v>
       </c>
       <c r="C19">
-        <v>-0.01802767059811775</v>
+        <v>0.01697535906579091</v>
       </c>
       <c r="D19">
-        <v>0.1033040099228361</v>
+        <v>-0.06437154781198665</v>
       </c>
       <c r="E19">
-        <v>0.04747084435827708</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01025679894545888</v>
+      </c>
+      <c r="F19">
+        <v>-0.01567652739145232</v>
+      </c>
+      <c r="G19">
+        <v>0.01159013521202885</v>
+      </c>
+      <c r="H19">
+        <v>0.05740428099957907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001732263598584539</v>
+        <v>0.005094613158565761</v>
       </c>
       <c r="C20">
-        <v>-0.02473966960324783</v>
+        <v>0.04059839000381774</v>
       </c>
       <c r="D20">
-        <v>0.08495792130693187</v>
+        <v>-0.09227524639046107</v>
       </c>
       <c r="E20">
-        <v>0.03426526752235632</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02350050549582813</v>
+      </c>
+      <c r="F20">
+        <v>-0.02936242115890643</v>
+      </c>
+      <c r="G20">
+        <v>-0.005518832771508228</v>
+      </c>
+      <c r="H20">
+        <v>0.05288461342890483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.005302713377082768</v>
+        <v>0.005539074801069993</v>
       </c>
       <c r="C21">
-        <v>-0.02819966971280675</v>
+        <v>0.04523786654904669</v>
       </c>
       <c r="D21">
-        <v>0.1607911867643557</v>
+        <v>-0.131928168331328</v>
       </c>
       <c r="E21">
-        <v>0.08149136024717658</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0302288064773705</v>
+      </c>
+      <c r="F21">
+        <v>-0.09946340779555921</v>
+      </c>
+      <c r="G21">
+        <v>0.02307142317264891</v>
+      </c>
+      <c r="H21">
+        <v>0.1940745499176471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.002148514110499346</v>
+        <v>-0.0132847763902838</v>
       </c>
       <c r="C22">
-        <v>-0.06326817842440614</v>
+        <v>0.08798505063565337</v>
       </c>
       <c r="D22">
-        <v>0.2498444517984644</v>
+        <v>-0.2542046989178283</v>
       </c>
       <c r="E22">
-        <v>-0.01449539822613234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.05997709451595817</v>
+      </c>
+      <c r="F22">
+        <v>-0.0004566996957637298</v>
+      </c>
+      <c r="G22">
+        <v>0.3759141191682984</v>
+      </c>
+      <c r="H22">
+        <v>-0.419505728047761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001879651987476496</v>
+        <v>-0.01003077131024793</v>
       </c>
       <c r="C23">
-        <v>-0.06377395509769834</v>
+        <v>0.08956098985849502</v>
       </c>
       <c r="D23">
-        <v>0.2493384639269282</v>
+        <v>-0.256876584967075</v>
       </c>
       <c r="E23">
-        <v>-0.01438307364499471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.05523934786378314</v>
+      </c>
+      <c r="F23">
+        <v>-0.003814081717188285</v>
+      </c>
+      <c r="G23">
+        <v>0.3642627852736233</v>
+      </c>
+      <c r="H23">
+        <v>-0.4035882659659162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.023285399227132</v>
+        <v>0.009540102587903519</v>
       </c>
       <c r="C24">
-        <v>-0.05577699942108173</v>
+        <v>0.06590388797452325</v>
       </c>
       <c r="D24">
-        <v>0.0636593997188587</v>
+        <v>-0.04990842462101899</v>
       </c>
       <c r="E24">
-        <v>-0.0006357151045591558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02908891734905573</v>
+      </c>
+      <c r="F24">
+        <v>0.002609550770434733</v>
+      </c>
+      <c r="G24">
+        <v>-0.006963854076378448</v>
+      </c>
+      <c r="H24">
+        <v>0.0695976390005212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02528994756810357</v>
+        <v>0.01427837304678979</v>
       </c>
       <c r="C25">
-        <v>-0.04753671306396907</v>
+        <v>0.0606536928678979</v>
       </c>
       <c r="D25">
-        <v>0.06011058735426426</v>
+        <v>-0.05015147705380825</v>
       </c>
       <c r="E25">
-        <v>0.004018934871003368</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01430629023830157</v>
+      </c>
+      <c r="F25">
+        <v>0.00505622199905787</v>
+      </c>
+      <c r="G25">
+        <v>-0.01199412333984567</v>
+      </c>
+      <c r="H25">
+        <v>0.03747975159922362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.00661073732500876</v>
+        <v>0.0147714480571708</v>
       </c>
       <c r="C26">
-        <v>-0.01581565330155052</v>
+        <v>0.02717618756625747</v>
       </c>
       <c r="D26">
-        <v>0.08272950300497613</v>
+        <v>-0.06827610043266716</v>
       </c>
       <c r="E26">
-        <v>0.02125712848068554</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04233101020273589</v>
+      </c>
+      <c r="F26">
+        <v>-0.0450077829541707</v>
+      </c>
+      <c r="G26">
+        <v>0.001526339060254058</v>
+      </c>
+      <c r="H26">
+        <v>0.09771814122032416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.2559069362497629</v>
+        <v>0.3196214204803362</v>
       </c>
       <c r="C28">
-        <v>0.1997171064819303</v>
+        <v>-0.09265743497108175</v>
       </c>
       <c r="D28">
-        <v>0.0181289348985333</v>
+        <v>0.01398105333358749</v>
       </c>
       <c r="E28">
-        <v>0.05956415530713435</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.0502730387852325</v>
+      </c>
+      <c r="F28">
+        <v>-0.04589546042877324</v>
+      </c>
+      <c r="G28">
+        <v>0.04116642562943509</v>
+      </c>
+      <c r="H28">
+        <v>-0.008110541156632022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001803016001183837</v>
+        <v>0.0008673903505072759</v>
       </c>
       <c r="C29">
-        <v>-0.02084876193635783</v>
+        <v>0.03642879574920826</v>
       </c>
       <c r="D29">
-        <v>0.09557179457546613</v>
+        <v>-0.1055695611236256</v>
       </c>
       <c r="E29">
-        <v>0.01868049788094869</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.05706141421547779</v>
+      </c>
+      <c r="F29">
+        <v>-0.04156753345958586</v>
+      </c>
+      <c r="G29">
+        <v>0.0005385996186913279</v>
+      </c>
+      <c r="H29">
+        <v>0.133293034269176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02266657653197952</v>
+        <v>0.01321640051944511</v>
       </c>
       <c r="C30">
-        <v>-0.05894198032006657</v>
+        <v>0.08755452837466368</v>
       </c>
       <c r="D30">
-        <v>0.1625912139624885</v>
+        <v>-0.1479841607682902</v>
       </c>
       <c r="E30">
-        <v>0.030761316981174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05244092745032006</v>
+      </c>
+      <c r="F30">
+        <v>-0.03039091468462224</v>
+      </c>
+      <c r="G30">
+        <v>0.03044099721963836</v>
+      </c>
+      <c r="H30">
+        <v>0.0433780196363733</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.03786840888464971</v>
+        <v>0.01032381864115188</v>
       </c>
       <c r="C31">
-        <v>-0.08497639573439983</v>
+        <v>0.09383381195981971</v>
       </c>
       <c r="D31">
-        <v>0.06742053571433279</v>
+        <v>-0.04032246966305782</v>
       </c>
       <c r="E31">
-        <v>0.01427063831426736</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01918178208252838</v>
+      </c>
+      <c r="F31">
+        <v>-0.01579624923019673</v>
+      </c>
+      <c r="G31">
+        <v>0.001500929794213754</v>
+      </c>
+      <c r="H31">
+        <v>0.04766893894563891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01664919019140616</v>
+        <v>0.009750371603643523</v>
       </c>
       <c r="C32">
-        <v>-0.0323110494421085</v>
+        <v>0.04882283851227052</v>
       </c>
       <c r="D32">
-        <v>0.09557893256258608</v>
+        <v>-0.1091046623052003</v>
       </c>
       <c r="E32">
-        <v>0.06925166865839225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.002735426683953809</v>
+      </c>
+      <c r="F32">
+        <v>-0.05222153515926623</v>
+      </c>
+      <c r="G32">
+        <v>0.00870132869340513</v>
+      </c>
+      <c r="H32">
+        <v>0.05300699526347856</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.008462840127982995</v>
+        <v>0.007016938221955079</v>
       </c>
       <c r="C33">
-        <v>-0.04078267714823209</v>
+        <v>0.05862375493756646</v>
       </c>
       <c r="D33">
-        <v>0.1384022116934147</v>
+        <v>-0.1218825510579094</v>
       </c>
       <c r="E33">
-        <v>0.04472292661527238</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02691474525610213</v>
+      </c>
+      <c r="F33">
+        <v>-0.02900009405506521</v>
+      </c>
+      <c r="G33">
+        <v>0.0008293262889860579</v>
+      </c>
+      <c r="H33">
+        <v>0.06298836034711132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.021142309088759</v>
+        <v>0.007442451502409885</v>
       </c>
       <c r="C34">
-        <v>-0.05845297374838241</v>
+        <v>0.06180486721574065</v>
       </c>
       <c r="D34">
-        <v>0.04884251539249737</v>
+        <v>-0.02837391124719737</v>
       </c>
       <c r="E34">
-        <v>-0.04363831655959687</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02876780687890749</v>
+      </c>
+      <c r="F34">
+        <v>0.03704856829299247</v>
+      </c>
+      <c r="G34">
+        <v>-0.01040359753376028</v>
+      </c>
+      <c r="H34">
+        <v>0.0569094780717037</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002466899493909369</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01045818962279262</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03413095259676763</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.003704148599715911</v>
+      </c>
+      <c r="F35">
+        <v>-0.0191810398150265</v>
+      </c>
+      <c r="G35">
+        <v>0.000903283757216585</v>
+      </c>
+      <c r="H35">
+        <v>0.04731384471505746</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.006423307831972632</v>
+        <v>0.01196282246041619</v>
       </c>
       <c r="C36">
-        <v>-0.006245551115760407</v>
+        <v>0.02142093817788577</v>
       </c>
       <c r="D36">
-        <v>0.08530853269640423</v>
+        <v>-0.07582993504351943</v>
       </c>
       <c r="E36">
-        <v>0.04652515132121211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02745468029066141</v>
+      </c>
+      <c r="F36">
+        <v>-0.05004847244027849</v>
+      </c>
+      <c r="G36">
+        <v>0.003586036567782707</v>
+      </c>
+      <c r="H36">
+        <v>0.06447757606951265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.00413201888736794</v>
+        <v>0.01380589565751076</v>
       </c>
       <c r="C38">
-        <v>-0.006138363876274976</v>
+        <v>0.01986952049671231</v>
       </c>
       <c r="D38">
-        <v>0.08947413434199537</v>
+        <v>-0.08650285134817785</v>
       </c>
       <c r="E38">
-        <v>0.01496829571601383</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.004327608772872494</v>
+      </c>
+      <c r="F38">
+        <v>-0.003354672002785768</v>
+      </c>
+      <c r="G38">
+        <v>0.0258151134898121</v>
+      </c>
+      <c r="H38">
+        <v>0.06512062040081837</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.0151879365619609</v>
+        <v>0.002402941069926987</v>
       </c>
       <c r="C39">
-        <v>-0.05670858034205842</v>
+        <v>0.07622263254680521</v>
       </c>
       <c r="D39">
-        <v>0.1122447485723223</v>
+        <v>-0.09609085799381592</v>
       </c>
       <c r="E39">
-        <v>-0.009947362271435754</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05338161697042283</v>
+      </c>
+      <c r="F39">
+        <v>0.002165901494541779</v>
+      </c>
+      <c r="G39">
+        <v>-0.007045780349193483</v>
+      </c>
+      <c r="H39">
+        <v>0.0952446031933246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01150565134359197</v>
+        <v>0.0127229323318505</v>
       </c>
       <c r="C40">
-        <v>-0.01726301249128806</v>
+        <v>0.0319628913180048</v>
       </c>
       <c r="D40">
-        <v>0.125688661490987</v>
+        <v>-0.1029612572226572</v>
       </c>
       <c r="E40">
-        <v>-0.01315070810536051</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.050700663281346</v>
+      </c>
+      <c r="F40">
+        <v>0.02220872730862715</v>
+      </c>
+      <c r="G40">
+        <v>0.04351099251904184</v>
+      </c>
+      <c r="H40">
+        <v>0.08724201604544851</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.009238537786687004</v>
+        <v>0.0161542629830576</v>
       </c>
       <c r="C41">
-        <v>-0.003561257397452382</v>
+        <v>0.01808748925186156</v>
       </c>
       <c r="D41">
-        <v>0.04612508839148515</v>
+        <v>-0.04849726269314612</v>
       </c>
       <c r="E41">
-        <v>0.03393724124768509</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.006848222292256856</v>
+      </c>
+      <c r="F41">
+        <v>-0.02587682996758423</v>
+      </c>
+      <c r="G41">
+        <v>0.005912304019841398</v>
+      </c>
+      <c r="H41">
+        <v>0.04597579049034756</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.001759311489266965</v>
+        <v>0.008946322165030484</v>
       </c>
       <c r="C43">
-        <v>-0.004542195227845532</v>
+        <v>0.01515152514139939</v>
       </c>
       <c r="D43">
-        <v>0.05388228991809709</v>
+        <v>-0.05235562428451414</v>
       </c>
       <c r="E43">
-        <v>0.0231824808466262</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.009469595329327604</v>
+      </c>
+      <c r="F43">
+        <v>-0.02106685405106836</v>
+      </c>
+      <c r="G43">
+        <v>0.008935991981999175</v>
+      </c>
+      <c r="H43">
+        <v>0.05484231222701694</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01572360494954338</v>
+        <v>0.01186285661961999</v>
       </c>
       <c r="C44">
-        <v>-0.02294408294629196</v>
+        <v>0.0468444905754176</v>
       </c>
       <c r="D44">
-        <v>0.1056555071331337</v>
+        <v>-0.1098773196830379</v>
       </c>
       <c r="E44">
-        <v>0.05171074036955539</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.03798833284739237</v>
+      </c>
+      <c r="F44">
+        <v>-0.03715015918934531</v>
+      </c>
+      <c r="G44">
+        <v>0.02933627227116114</v>
+      </c>
+      <c r="H44">
+        <v>0.05205728140633047</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1864,97 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.005017877722658569</v>
+        <v>0.0002456971552466523</v>
       </c>
       <c r="C46">
-        <v>-0.02901964310087615</v>
+        <v>0.04061956757800243</v>
       </c>
       <c r="D46">
-        <v>0.08767109418450676</v>
+        <v>-0.07473208656543674</v>
       </c>
       <c r="E46">
-        <v>0.02034190254636987</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0422617200006558</v>
+      </c>
+      <c r="F46">
+        <v>-0.03535873655004321</v>
+      </c>
+      <c r="G46">
+        <v>0.01520923315230042</v>
+      </c>
+      <c r="H46">
+        <v>0.1315347052986564</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.08077769233699232</v>
+        <v>0.03500413396724945</v>
       </c>
       <c r="C47">
-        <v>-0.1076963694579129</v>
+        <v>0.1264821968210464</v>
       </c>
       <c r="D47">
-        <v>0.05757864694068946</v>
+        <v>-0.0230402050345736</v>
       </c>
       <c r="E47">
-        <v>0.03204605908057295</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008098155904611069</v>
+      </c>
+      <c r="F47">
+        <v>0.002992584234669496</v>
+      </c>
+      <c r="G47">
+        <v>-0.03985814374308342</v>
+      </c>
+      <c r="H47">
+        <v>0.0552292039733427</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.00757654434827349</v>
+        <v>0.01367163798380916</v>
       </c>
       <c r="C48">
-        <v>-0.01555769336223177</v>
+        <v>0.03163859212813603</v>
       </c>
       <c r="D48">
-        <v>0.08889667511199933</v>
+        <v>-0.08177693281883482</v>
       </c>
       <c r="E48">
-        <v>0.05975034002458951</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.0204517525598864</v>
+      </c>
+      <c r="F48">
+        <v>-0.0607999691547708</v>
+      </c>
+      <c r="G48">
+        <v>0.009634129786872087</v>
+      </c>
+      <c r="H48">
+        <v>0.1037581411409113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1968,71 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03542030636142785</v>
+        <v>0.01488687878065576</v>
       </c>
       <c r="C50">
-        <v>-0.05976183589918128</v>
+        <v>0.07560909672644534</v>
       </c>
       <c r="D50">
-        <v>0.06030059491060556</v>
+        <v>-0.04688175428643075</v>
       </c>
       <c r="E50">
-        <v>0.010403984238876</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01105936133813153</v>
+      </c>
+      <c r="F50">
+        <v>-0.01078266813334424</v>
+      </c>
+      <c r="G50">
+        <v>0.01580030564886909</v>
+      </c>
+      <c r="H50">
+        <v>0.03773149991633522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.002391464310473911</v>
+        <v>-0.0007700346428358568</v>
       </c>
       <c r="C51">
-        <v>-0.004325860435026766</v>
+        <v>0.01706067618291149</v>
       </c>
       <c r="D51">
-        <v>0.05609141698500895</v>
+        <v>-0.0586200643026529</v>
       </c>
       <c r="E51">
-        <v>0.002468277943433786</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03876876917838554</v>
+      </c>
+      <c r="F51">
+        <v>-0.03991972463015845</v>
+      </c>
+      <c r="G51">
+        <v>0.01998720090843557</v>
+      </c>
+      <c r="H51">
+        <v>0.04842872711569586</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1079650396839513</v>
+        <v>0.05473342430220721</v>
       </c>
       <c r="C53">
-        <v>-0.1246705651241123</v>
+        <v>0.1560264007287445</v>
       </c>
       <c r="D53">
-        <v>0.009227455906103648</v>
+        <v>0.02183705001517877</v>
       </c>
       <c r="E53">
-        <v>0.06093357457562157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.0296513333122373</v>
+      </c>
+      <c r="F53">
+        <v>-0.0493015804062262</v>
+      </c>
+      <c r="G53">
+        <v>0.001933512227653886</v>
+      </c>
+      <c r="H53">
+        <v>0.004833353563632341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01042049563696327</v>
+        <v>0.009890931846073439</v>
       </c>
       <c r="C54">
-        <v>-0.02098582687971957</v>
+        <v>0.03741061669125913</v>
       </c>
       <c r="D54">
-        <v>0.08872740764661864</v>
+        <v>-0.07687077049943652</v>
       </c>
       <c r="E54">
-        <v>0.008268946803271452</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01509636771677493</v>
+      </c>
+      <c r="F54">
+        <v>-0.004864612828326714</v>
+      </c>
+      <c r="G54">
+        <v>0.02658697251111214</v>
+      </c>
+      <c r="H54">
+        <v>0.07942824709432199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09505992984393369</v>
+        <v>0.04183104376474309</v>
       </c>
       <c r="C55">
-        <v>-0.1058527400294754</v>
+        <v>0.1309089350071822</v>
       </c>
       <c r="D55">
-        <v>0.005653958078935531</v>
+        <v>0.03138169993376575</v>
       </c>
       <c r="E55">
-        <v>0.01159301675627999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.004187451343224174</v>
+      </c>
+      <c r="F55">
+        <v>-0.01466620058634758</v>
+      </c>
+      <c r="G55">
+        <v>0.006533090473304614</v>
+      </c>
+      <c r="H55">
+        <v>0.01619596516668617</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1330811236060881</v>
+        <v>0.05666071605396479</v>
       </c>
       <c r="C56">
-        <v>-0.1424993430205181</v>
+        <v>0.1884113022908524</v>
       </c>
       <c r="D56">
-        <v>0.001141907432781734</v>
+        <v>0.03282149535021409</v>
       </c>
       <c r="E56">
-        <v>0.01294337443126369</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03063573930173468</v>
+      </c>
+      <c r="F56">
+        <v>-0.01679942182667711</v>
+      </c>
+      <c r="G56">
+        <v>0.05578362462666738</v>
+      </c>
+      <c r="H56">
+        <v>0.00944709982581082</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.009646279094408726</v>
+        <v>0.00711463229555451</v>
       </c>
       <c r="C58">
-        <v>-0.01242071547265481</v>
+        <v>0.05400916808941227</v>
       </c>
       <c r="D58">
-        <v>0.214532386590154</v>
+        <v>-0.2720558893707815</v>
       </c>
       <c r="E58">
-        <v>0.08494340279493356</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.01385318077377306</v>
+      </c>
+      <c r="F58">
+        <v>-0.1049491003322374</v>
+      </c>
+      <c r="G58">
+        <v>0.1316843218440612</v>
+      </c>
+      <c r="H58">
+        <v>-0.09263432510620194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1801766874893161</v>
+        <v>0.25300681592768</v>
       </c>
       <c r="C59">
-        <v>0.1484322700632547</v>
+        <v>-0.06323225814881975</v>
       </c>
       <c r="D59">
-        <v>0.04524256774515815</v>
+        <v>-0.05622195224680365</v>
       </c>
       <c r="E59">
-        <v>0.03742937733939447</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02056430963593924</v>
+      </c>
+      <c r="F59">
+        <v>-0.02379487754171877</v>
+      </c>
+      <c r="G59">
+        <v>0.01175870004934203</v>
+      </c>
+      <c r="H59">
+        <v>-0.004458202820564133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1835658718172313</v>
+        <v>0.1490041035434988</v>
       </c>
       <c r="C60">
-        <v>-0.1012615649271197</v>
+        <v>0.1717749632784682</v>
       </c>
       <c r="D60">
-        <v>0.2082129632327947</v>
+        <v>-0.08582707450100653</v>
       </c>
       <c r="E60">
-        <v>-0.1649371818205597</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1656030012170947</v>
+      </c>
+      <c r="F60">
+        <v>0.2270504780082707</v>
+      </c>
+      <c r="G60">
+        <v>-0.2329592829657093</v>
+      </c>
+      <c r="H60">
+        <v>-0.2164370320837971</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02470092404732355</v>
+        <v>0.01098374294405865</v>
       </c>
       <c r="C61">
-        <v>-0.05341811198318774</v>
+        <v>0.07452329208942088</v>
       </c>
       <c r="D61">
-        <v>0.09886152715884826</v>
+        <v>-0.07965851397753997</v>
       </c>
       <c r="E61">
-        <v>-0.002081930915242608</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03739726745040479</v>
+      </c>
+      <c r="F61">
+        <v>0.01149102929353631</v>
+      </c>
+      <c r="G61">
+        <v>-0.02641933303598129</v>
+      </c>
+      <c r="H61">
+        <v>0.08889266818219851</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.006683069163515462</v>
+        <v>0.00825082305296306</v>
       </c>
       <c r="C63">
-        <v>-0.02537046113089365</v>
+        <v>0.03685726864989701</v>
       </c>
       <c r="D63">
-        <v>0.09442209843881509</v>
+        <v>-0.06890478731871583</v>
       </c>
       <c r="E63">
-        <v>0.0177476172780145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05714541141746258</v>
+      </c>
+      <c r="F63">
+        <v>-0.02869154671407559</v>
+      </c>
+      <c r="G63">
+        <v>0.008368086293254823</v>
+      </c>
+      <c r="H63">
+        <v>0.06529554400029138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05621363855459213</v>
+        <v>0.01675839847389744</v>
       </c>
       <c r="C64">
-        <v>-0.08308544995796587</v>
+        <v>0.1048883002736324</v>
       </c>
       <c r="D64">
-        <v>0.0330375161628101</v>
+        <v>-0.01667869024227512</v>
       </c>
       <c r="E64">
-        <v>0.01741269974383892</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02457951616913156</v>
+      </c>
+      <c r="F64">
+        <v>-0.01929515316803878</v>
+      </c>
+      <c r="G64">
+        <v>-0.04542969434317327</v>
+      </c>
+      <c r="H64">
+        <v>0.08645918304210269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02411830797648862</v>
+        <v>0.02100886857292306</v>
       </c>
       <c r="C65">
-        <v>-0.01552760503134271</v>
+        <v>0.04353385510175534</v>
       </c>
       <c r="D65">
-        <v>0.1154538864567195</v>
+        <v>-0.1146640620633345</v>
       </c>
       <c r="E65">
-        <v>0.00874431919482253</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04318390585164362</v>
+      </c>
+      <c r="F65">
+        <v>0.005790542776763934</v>
+      </c>
+      <c r="G65">
+        <v>-0.0263693933528404</v>
+      </c>
+      <c r="H65">
+        <v>0.02279940022529292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.01866852966714994</v>
+        <v>-0.0003305759949798403</v>
       </c>
       <c r="C66">
-        <v>-0.06476496828597343</v>
+        <v>0.09449878245933331</v>
       </c>
       <c r="D66">
-        <v>0.1194224073885563</v>
+        <v>-0.1217543962334977</v>
       </c>
       <c r="E66">
-        <v>-0.01264356181307028</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.04139835050920661</v>
+      </c>
+      <c r="F66">
+        <v>0.008643723400338907</v>
+      </c>
+      <c r="G66">
+        <v>0.0137923550712037</v>
+      </c>
+      <c r="H66">
+        <v>0.05854165222053791</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02340701614769005</v>
+        <v>0.02386195103228898</v>
       </c>
       <c r="C67">
-        <v>-0.01905790019277534</v>
+        <v>0.03213848695217193</v>
       </c>
       <c r="D67">
-        <v>0.04581587823787753</v>
+        <v>-0.04066724834603005</v>
       </c>
       <c r="E67">
-        <v>-0.01245081242624177</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.0105184348896742</v>
+      </c>
+      <c r="F67">
+        <v>0.02453601848006445</v>
+      </c>
+      <c r="G67">
+        <v>0.0107301765400876</v>
+      </c>
+      <c r="H67">
+        <v>0.06876402069940651</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2031520707843086</v>
+        <v>0.2733205071949775</v>
       </c>
       <c r="C68">
-        <v>0.1574042320088746</v>
+        <v>-0.068710819069216</v>
       </c>
       <c r="D68">
-        <v>0.02981765618555572</v>
+        <v>-0.02405326150448308</v>
       </c>
       <c r="E68">
-        <v>0.007390359897768393</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.005219771987995773</v>
+      </c>
+      <c r="F68">
+        <v>-0.02486092628848124</v>
+      </c>
+      <c r="G68">
+        <v>0.06917381082373392</v>
+      </c>
+      <c r="H68">
+        <v>-0.04980741799098034</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05639920360305183</v>
+        <v>0.0188686967221664</v>
       </c>
       <c r="C69">
-        <v>-0.1149799457581454</v>
+        <v>0.1184075452895826</v>
       </c>
       <c r="D69">
-        <v>0.077463807498515</v>
+        <v>-0.03116063110867757</v>
       </c>
       <c r="E69">
-        <v>0.0192916734710791</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.007320552467787258</v>
+      </c>
+      <c r="F69">
+        <v>0.00642116243001971</v>
+      </c>
+      <c r="G69">
+        <v>-0.02188480565098375</v>
+      </c>
+      <c r="H69">
+        <v>0.04149129495490603</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2127074153177041</v>
+        <v>0.2749785433756713</v>
       </c>
       <c r="C71">
-        <v>0.1807700713882578</v>
+        <v>-0.08124238749000141</v>
       </c>
       <c r="D71">
-        <v>0.01917875574650708</v>
+        <v>-0.01589882726864373</v>
       </c>
       <c r="E71">
-        <v>0.01278012332588965</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.0008650240953160284</v>
+      </c>
+      <c r="F71">
+        <v>-0.02027946397811203</v>
+      </c>
+      <c r="G71">
+        <v>0.03413788378576397</v>
+      </c>
+      <c r="H71">
+        <v>0.02385797813927452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1041202540905346</v>
+        <v>0.05597577885893603</v>
       </c>
       <c r="C72">
-        <v>-0.07555473737343688</v>
+        <v>0.1251000189263595</v>
       </c>
       <c r="D72">
-        <v>0.1111651701780818</v>
+        <v>-0.05743265402298309</v>
       </c>
       <c r="E72">
-        <v>-0.04540872543142698</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.06987441567438596</v>
+      </c>
+      <c r="F72">
+        <v>0.02879577346981355</v>
+      </c>
+      <c r="G72">
+        <v>-0.03735025572107473</v>
+      </c>
+      <c r="H72">
+        <v>0.05171305581492121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1716961957412955</v>
+        <v>0.1417592328588282</v>
       </c>
       <c r="C73">
-        <v>-0.06454206177252216</v>
+        <v>0.1448905215414409</v>
       </c>
       <c r="D73">
-        <v>0.2815151801160132</v>
+        <v>-0.09710022595973752</v>
       </c>
       <c r="E73">
-        <v>-0.2491765019290036</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2916926206692354</v>
+      </c>
+      <c r="F73">
+        <v>0.3216760401326937</v>
+      </c>
+      <c r="G73">
+        <v>-0.4154062987693917</v>
+      </c>
+      <c r="H73">
+        <v>-0.1466521660934141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1071403961118659</v>
+        <v>0.04969997967284952</v>
       </c>
       <c r="C74">
-        <v>-0.115292851025501</v>
+        <v>0.1452423333478351</v>
       </c>
       <c r="D74">
-        <v>-0.01785004771409253</v>
+        <v>0.04171401643936546</v>
       </c>
       <c r="E74">
-        <v>0.03943118583014764</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01149274031308283</v>
+      </c>
+      <c r="F74">
+        <v>-0.03695813181322778</v>
+      </c>
+      <c r="G74">
+        <v>-0.006710020415066498</v>
+      </c>
+      <c r="H74">
+        <v>-0.0104127930583637</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.234348917456576</v>
+        <v>0.1089247531189349</v>
       </c>
       <c r="C75">
-        <v>-0.1990852392803681</v>
+        <v>0.2680815928019681</v>
       </c>
       <c r="D75">
-        <v>-0.1015392484496547</v>
+        <v>0.1374564159611778</v>
       </c>
       <c r="E75">
-        <v>-0.02790715234873422</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08833871696390533</v>
+      </c>
+      <c r="F75">
+        <v>0.02995266215101747</v>
+      </c>
+      <c r="G75">
+        <v>0.09418452952521897</v>
+      </c>
+      <c r="H75">
+        <v>0.01832873127803935</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1397815953414727</v>
+        <v>0.06189724198715145</v>
       </c>
       <c r="C76">
-        <v>-0.1382546403600078</v>
+        <v>0.1815878204566419</v>
       </c>
       <c r="D76">
-        <v>0.01580268218307708</v>
+        <v>0.0378716636446615</v>
       </c>
       <c r="E76">
-        <v>0.01340867528463862</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02233634169433095</v>
+      </c>
+      <c r="F76">
+        <v>-0.003730189359303974</v>
+      </c>
+      <c r="G76">
+        <v>0.03482008036697751</v>
+      </c>
+      <c r="H76">
+        <v>0.03382796732289287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.02118979987385995</v>
+        <v>0.001848923358505912</v>
       </c>
       <c r="C77">
-        <v>-0.0672476353261655</v>
+        <v>0.1058117811926461</v>
       </c>
       <c r="D77">
-        <v>-0.009944248428322521</v>
+        <v>-0.3134482895481159</v>
       </c>
       <c r="E77">
-        <v>0.2452992033330612</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.841522515558083</v>
+      </c>
+      <c r="F77">
+        <v>0.2281593422146666</v>
+      </c>
+      <c r="G77">
+        <v>-0.2106874343692648</v>
+      </c>
+      <c r="H77">
+        <v>-0.1400949993920391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.02594542218932227</v>
+        <v>0.01660288762004652</v>
       </c>
       <c r="C78">
-        <v>-0.06895477889310467</v>
+        <v>0.09107994614837897</v>
       </c>
       <c r="D78">
-        <v>0.1508853608838217</v>
+        <v>-0.1188850306116136</v>
       </c>
       <c r="E78">
-        <v>0.04796892138196721</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06765794468861357</v>
+      </c>
+      <c r="F78">
+        <v>-0.04305586112119838</v>
+      </c>
+      <c r="G78">
+        <v>0.03294758914420651</v>
+      </c>
+      <c r="H78">
+        <v>0.02590851620573875</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.09642513279062283</v>
+        <v>0.0348873051243648</v>
       </c>
       <c r="C79">
-        <v>-0.1749356902684663</v>
+        <v>0.1927998047601227</v>
       </c>
       <c r="D79">
-        <v>-0.1137646950768744</v>
+        <v>0.07346035541688341</v>
       </c>
       <c r="E79">
-        <v>0.7847721127207792</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05094925271033622</v>
+      </c>
+      <c r="F79">
+        <v>-0.7696911001826903</v>
+      </c>
+      <c r="G79">
+        <v>-0.4075449808825946</v>
+      </c>
+      <c r="H79">
+        <v>-0.3156060883126722</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.005407374538401632</v>
+        <v>0.005447464883549554</v>
       </c>
       <c r="C80">
-        <v>-0.04648637155739747</v>
+        <v>0.04694877634810437</v>
       </c>
       <c r="D80">
-        <v>0.04968665749638414</v>
+        <v>-0.04018412923797525</v>
       </c>
       <c r="E80">
-        <v>-0.006798227867226198</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04253810993210973</v>
+      </c>
+      <c r="F80">
+        <v>-0.004819672158290302</v>
+      </c>
+      <c r="G80">
+        <v>0.01559200188633031</v>
+      </c>
+      <c r="H80">
+        <v>0.02691868977923725</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1199229302986003</v>
+        <v>0.04376466657180397</v>
       </c>
       <c r="C81">
-        <v>-0.1348268929245859</v>
+        <v>0.1691627071234535</v>
       </c>
       <c r="D81">
-        <v>-0.06929940838588808</v>
+        <v>0.07589809642160787</v>
       </c>
       <c r="E81">
-        <v>0.05945179331745958</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04835400648562008</v>
+      </c>
+      <c r="F81">
+        <v>-0.06600109465570166</v>
+      </c>
+      <c r="G81">
+        <v>0.04462197901635442</v>
+      </c>
+      <c r="H81">
+        <v>0.0827306860098071</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2529286240536316</v>
+        <v>0.0911585190100231</v>
       </c>
       <c r="C82">
-        <v>-0.297732976006988</v>
+        <v>0.3221552095433758</v>
       </c>
       <c r="D82">
-        <v>-0.1947548650256209</v>
+        <v>0.2377452538565836</v>
       </c>
       <c r="E82">
-        <v>-0.1424740358497463</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.05781465069179586</v>
+      </c>
+      <c r="F82">
+        <v>0.1052307272123758</v>
+      </c>
+      <c r="G82">
+        <v>0.0947476134742786</v>
+      </c>
+      <c r="H82">
+        <v>0.1169383555468601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.007042639591275906</v>
+        <v>-0.0130627394125008</v>
       </c>
       <c r="C83">
-        <v>-0.0509371697379392</v>
+        <v>0.0258335858466625</v>
       </c>
       <c r="D83">
-        <v>-0.0002068728705911685</v>
+        <v>-0.02708709034650733</v>
       </c>
       <c r="E83">
-        <v>0.06189870385457845</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.07855643899922386</v>
+      </c>
+      <c r="F83">
+        <v>-0.07205466687990653</v>
+      </c>
+      <c r="G83">
+        <v>0.03555467767724233</v>
+      </c>
+      <c r="H83">
+        <v>0.0921625552839906</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001382798458820459</v>
+        <v>-0.0003539692861933868</v>
       </c>
       <c r="C84">
-        <v>0.0001606591303958265</v>
+        <v>0.01939184255623187</v>
       </c>
       <c r="D84">
-        <v>0.008494156803740693</v>
+        <v>-0.04815867331900515</v>
       </c>
       <c r="E84">
-        <v>-0.002506919169931213</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.003335754151028061</v>
+      </c>
+      <c r="F84">
+        <v>-0.0282216625581783</v>
+      </c>
+      <c r="G84">
+        <v>0.05021582334421483</v>
+      </c>
+      <c r="H84">
+        <v>0.01347789963326959</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1412203630546251</v>
+        <v>0.0578339101770901</v>
       </c>
       <c r="C85">
-        <v>-0.1387630902712224</v>
+        <v>0.182921169643346</v>
       </c>
       <c r="D85">
-        <v>-0.03901750372894991</v>
+        <v>0.09140254581164203</v>
       </c>
       <c r="E85">
-        <v>0.02365507788434226</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.001803377284922357</v>
+      </c>
+      <c r="F85">
+        <v>-0.07499981695918274</v>
+      </c>
+      <c r="G85">
+        <v>0.02035983827465955</v>
+      </c>
+      <c r="H85">
+        <v>0.001156599572725213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0132121328750358</v>
+        <v>0.01370221822924226</v>
       </c>
       <c r="C86">
-        <v>-0.0144325543344153</v>
+        <v>0.03220891428250044</v>
       </c>
       <c r="D86">
-        <v>0.08210901460817953</v>
+        <v>-0.1012277782714781</v>
       </c>
       <c r="E86">
-        <v>0.05387714644493326</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02191776066876019</v>
+      </c>
+      <c r="F86">
+        <v>0.001912409979158652</v>
+      </c>
+      <c r="G86">
+        <v>-0.01782184342231119</v>
+      </c>
+      <c r="H86">
+        <v>0.0243055462218348</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.01943214086582832</v>
+        <v>0.01239286403410984</v>
       </c>
       <c r="C87">
-        <v>-0.0243758687120432</v>
+        <v>0.05841852102357994</v>
       </c>
       <c r="D87">
-        <v>0.1352926220223293</v>
+        <v>-0.1458138983040717</v>
       </c>
       <c r="E87">
-        <v>0.05816294707609125</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01264909535473765</v>
+      </c>
+      <c r="F87">
+        <v>-0.04221854606016415</v>
+      </c>
+      <c r="G87">
+        <v>0.05439925998002113</v>
+      </c>
+      <c r="H87">
+        <v>0.03194084481076018</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05267808034834846</v>
+        <v>0.03449179561233155</v>
       </c>
       <c r="C88">
-        <v>-0.0448170602862971</v>
+        <v>0.06761556547882108</v>
       </c>
       <c r="D88">
-        <v>0.02609602284622304</v>
+        <v>-0.01305241695191569</v>
       </c>
       <c r="E88">
-        <v>0.03059163422833125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02749744448522218</v>
+      </c>
+      <c r="F88">
+        <v>-0.01964119142303757</v>
+      </c>
+      <c r="G88">
+        <v>-0.01054186614683437</v>
+      </c>
+      <c r="H88">
+        <v>0.01874191123961583</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.3217630087693548</v>
+        <v>0.4066937910218545</v>
       </c>
       <c r="C89">
-        <v>0.3280347066575982</v>
+        <v>-0.1557790278192274</v>
       </c>
       <c r="D89">
-        <v>0.01078541747603485</v>
+        <v>-0.02844252305211944</v>
       </c>
       <c r="E89">
-        <v>0.1060666261132364</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05440966780984911</v>
+      </c>
+      <c r="F89">
+        <v>-0.07072761611066122</v>
+      </c>
+      <c r="G89">
+        <v>0.04342347689393618</v>
+      </c>
+      <c r="H89">
+        <v>0.09180756134385488</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2543560170000843</v>
+        <v>0.3192228995225169</v>
       </c>
       <c r="C90">
-        <v>0.2388817960553692</v>
+        <v>-0.1035272513681078</v>
       </c>
       <c r="D90">
-        <v>0.04278609755358606</v>
+        <v>-0.03635982213838857</v>
       </c>
       <c r="E90">
-        <v>-0.007687922393622321</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01082861565605237</v>
+      </c>
+      <c r="F90">
+        <v>0.007802391544363376</v>
+      </c>
+      <c r="G90">
+        <v>0.05728244150816163</v>
+      </c>
+      <c r="H90">
+        <v>0.0008152163511267084</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1559523843665943</v>
+        <v>0.0680496768855994</v>
       </c>
       <c r="C91">
-        <v>-0.1872215961703191</v>
+        <v>0.2092815602382438</v>
       </c>
       <c r="D91">
-        <v>-0.09552362825046999</v>
+        <v>0.1089317620671338</v>
       </c>
       <c r="E91">
-        <v>0.0894834670696311</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05856988250754321</v>
+      </c>
+      <c r="F91">
+        <v>-0.07366206086754461</v>
+      </c>
+      <c r="G91">
+        <v>0.004153933899972936</v>
+      </c>
+      <c r="H91">
+        <v>0.00705701274941666</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2412773599755717</v>
+        <v>0.3384461868528851</v>
       </c>
       <c r="C92">
-        <v>0.260876287206526</v>
+        <v>-0.1411594593705136</v>
       </c>
       <c r="D92">
-        <v>-0.05297754670467899</v>
+        <v>-0.002339686048921659</v>
       </c>
       <c r="E92">
-        <v>0.04721793368411434</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06406940726575508</v>
+      </c>
+      <c r="F92">
+        <v>-0.03032681097159918</v>
+      </c>
+      <c r="G92">
+        <v>0.02929822680748315</v>
+      </c>
+      <c r="H92">
+        <v>0.01815201122296204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.280170474032914</v>
+        <v>0.3353872032753866</v>
       </c>
       <c r="C93">
-        <v>0.2514755782563704</v>
+        <v>-0.1151689324125381</v>
       </c>
       <c r="D93">
-        <v>0.01634590297722462</v>
+        <v>0.01816736061229817</v>
       </c>
       <c r="E93">
-        <v>0.0009710649541382415</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02562229469898279</v>
+      </c>
+      <c r="F93">
+        <v>-0.008831845081843042</v>
+      </c>
+      <c r="G93">
+        <v>-0.01898473361100247</v>
+      </c>
+      <c r="H93">
+        <v>-0.0005719218160557524</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2961877823026867</v>
+        <v>0.1271115384234306</v>
       </c>
       <c r="C94">
-        <v>-0.2734767656063113</v>
+        <v>0.3520089199539062</v>
       </c>
       <c r="D94">
-        <v>-0.3462492941687685</v>
+        <v>0.3613457011849605</v>
       </c>
       <c r="E94">
-        <v>-0.2202241671910662</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06187721947482595</v>
+      </c>
+      <c r="F94">
+        <v>0.1038827081853292</v>
+      </c>
+      <c r="G94">
+        <v>0.3223454485500929</v>
+      </c>
+      <c r="H94">
+        <v>-0.06047929898350515</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.01440376297202267</v>
+        <v>0.01822134925764173</v>
       </c>
       <c r="C95">
-        <v>-0.03767735566738335</v>
+        <v>0.06366922950288559</v>
       </c>
       <c r="D95">
-        <v>0.0158322207969872</v>
+        <v>-0.1093090956564208</v>
       </c>
       <c r="E95">
-        <v>0.1006967443940672</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1558047788489567</v>
+      </c>
+      <c r="F95">
+        <v>0.01523394336863274</v>
+      </c>
+      <c r="G95">
+        <v>-0.07592732533015671</v>
+      </c>
+      <c r="H95">
+        <v>0.3365512738945786</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001368063484351348</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0008168155867592777</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0009657594588733649</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003706574702728829</v>
+      </c>
+      <c r="F97">
+        <v>-0.0004584931831612103</v>
+      </c>
+      <c r="G97">
+        <v>0.0003477582713416324</v>
+      </c>
+      <c r="H97">
+        <v>0.003560909965131495</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1437812992635234</v>
+        <v>0.1146406360606773</v>
       </c>
       <c r="C98">
-        <v>-0.08715661404705395</v>
+        <v>0.151525912524817</v>
       </c>
       <c r="D98">
-        <v>0.1606396669643205</v>
+        <v>-0.06440503416209396</v>
       </c>
       <c r="E98">
-        <v>-0.1979263992734498</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2014745839050008</v>
+      </c>
+      <c r="F98">
+        <v>0.249096268269358</v>
+      </c>
+      <c r="G98">
+        <v>-0.2843417416365576</v>
+      </c>
+      <c r="H98">
+        <v>-0.1655203786594798</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001087094188827907</v>
+        <v>0.001358375635606455</v>
       </c>
       <c r="C101">
-        <v>-0.02011922791922561</v>
+        <v>0.03568530087655051</v>
       </c>
       <c r="D101">
-        <v>0.09533044603287399</v>
+        <v>-0.1047607915762289</v>
       </c>
       <c r="E101">
-        <v>0.01984670164875616</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.05638799824607783</v>
+      </c>
+      <c r="F101">
+        <v>-0.04179565158536498</v>
+      </c>
+      <c r="G101">
+        <v>0.001352976015512536</v>
+      </c>
+      <c r="H101">
+        <v>0.1336492647214165</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.105942111902303</v>
+        <v>0.0285706546522889</v>
       </c>
       <c r="C102">
-        <v>-0.1585325464510055</v>
+        <v>0.149256353801361</v>
       </c>
       <c r="D102">
-        <v>-0.0612900232760636</v>
+        <v>0.09727433549200538</v>
       </c>
       <c r="E102">
-        <v>-0.05093101697162009</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03574538896229942</v>
+      </c>
+      <c r="F102">
+        <v>0.06308921748053946</v>
+      </c>
+      <c r="G102">
+        <v>-0.006705443455698104</v>
+      </c>
+      <c r="H102">
+        <v>0.05237531604805663</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
